--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAE-USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DDCB7-5D77-6042-8097-2524AAC0A45D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="985"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -246,12 +247,21 @@
   </si>
   <si>
     <t>OS testing with Ubuntu 18.04</t>
+  </si>
+  <si>
+    <t>Touchscreen Kiosk Interface</t>
+  </si>
+  <si>
+    <t>craete installation script</t>
+  </si>
+  <si>
+    <t>Date: 10/01/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -345,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,39 +763,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L219" sqref="L219"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.125"/>
+    <col min="1" max="1" width="54.1640625"/>
     <col min="2" max="2" width="14.5"/>
-    <col min="3" max="3" width="6.875"/>
+    <col min="3" max="3" width="6.83203125"/>
     <col min="4" max="4" width="15"/>
-    <col min="5" max="5" width="17.375"/>
-    <col min="6" max="6" width="12.875"/>
+    <col min="5" max="5" width="17.33203125"/>
+    <col min="6" max="6" width="12.83203125"/>
     <col min="7" max="7" width="12.5"/>
-    <col min="8" max="1025" width="11.125"/>
+    <col min="8" max="1025" width="11.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -791,18 +804,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -848,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -871,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -894,18 +907,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -914,18 +927,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,7 +961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -971,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1017,18 +1030,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1037,18 +1050,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1126,18 +1139,18 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1146,18 +1159,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -1272,18 +1285,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1292,18 +1305,18 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1358,18 +1371,18 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1378,18 +1391,18 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>22</v>
       </c>
@@ -1435,18 +1448,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1455,18 +1468,18 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -1512,18 +1525,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1532,18 +1545,18 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>35</v>
       </c>
@@ -1589,18 +1602,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1609,18 +1622,18 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>37</v>
       </c>
@@ -1666,18 +1679,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1686,18 +1699,18 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>37</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1775,18 +1788,18 @@
       <c r="F87" s="12"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1795,18 +1808,18 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>39</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>41</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -1886,7 +1899,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1895,7 +1908,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -1906,7 +1919,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>3</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>39</v>
       </c>
@@ -1952,7 +1965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>41</v>
       </c>
@@ -1975,7 +1988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
@@ -1986,7 +1999,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1995,7 +2008,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2019,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>39</v>
       </c>
@@ -2052,7 +2065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>44</v>
       </c>
@@ -2086,7 +2099,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2095,7 +2108,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2119,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>45</v>
       </c>
@@ -2163,7 +2176,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2172,7 +2185,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -2183,7 +2196,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>46</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2276,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2272,7 +2285,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -2283,7 +2296,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>46</v>
       </c>
@@ -2329,7 +2342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>48</v>
       </c>
@@ -2363,7 +2376,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2372,7 +2385,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2396,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>46</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>49</v>
       </c>
@@ -2463,7 +2476,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
     </row>
-    <row r="153" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2472,7 +2485,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>2</v>
       </c>
@@ -2483,7 +2496,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>46</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>41</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>50</v>
       </c>
@@ -2563,7 +2576,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
     </row>
-    <row r="162" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2572,7 +2585,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>2</v>
       </c>
@@ -2583,7 +2596,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>46</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>41</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>51</v>
       </c>
@@ -2663,7 +2676,7 @@
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
     </row>
-    <row r="171" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2672,7 +2685,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2696,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>52</v>
       </c>
@@ -2775,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>54</v>
       </c>
@@ -2798,7 +2811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>55</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>56</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>57</v>
       </c>
@@ -2867,7 +2880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>58</v>
       </c>
@@ -2890,27 +2903,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>63</v>
       </c>
@@ -2921,7 +2934,7 @@
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
     </row>
-    <row r="191" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2930,7 +2943,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>2</v>
       </c>
@@ -2941,7 +2954,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>46</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>41</v>
       </c>
@@ -3010,7 +3023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>52</v>
       </c>
@@ -3033,7 +3046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
         <v>54</v>
       </c>
@@ -3056,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>55</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
         <v>56</v>
       </c>
@@ -3102,7 +3115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
         <v>58</v>
       </c>
@@ -3148,38 +3161,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="13"/>
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
     </row>
-    <row r="210" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3188,7 +3203,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>2</v>
       </c>
@@ -3199,7 +3214,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
         <v>46</v>
       </c>
@@ -3245,7 +3260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>41</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="s">
         <v>52</v>
       </c>
@@ -3291,7 +3306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>54</v>
       </c>
@@ -3314,9 +3329,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B217" s="14">
         <v>20</v>
@@ -3337,7 +3352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>57</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
         <v>58</v>
       </c>
@@ -3383,7 +3398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>71</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="s">
         <v>72</v>
       </c>
@@ -3429,43 +3444,311 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="229" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+    </row>
+    <row r="230" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A231" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B233" s="14">
+        <v>40</v>
+      </c>
+      <c r="C233" s="14">
+        <v>3</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="14">
+        <v>25</v>
+      </c>
+      <c r="F233" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B234" s="14">
+        <v>40</v>
+      </c>
+      <c r="C234" s="14">
+        <v>1</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="14">
+        <v>1</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="14">
+        <v>8</v>
+      </c>
+      <c r="C235" s="14">
+        <v>1</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" s="14">
+        <v>4</v>
+      </c>
+      <c r="F235" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B236" s="14">
+        <v>1</v>
+      </c>
+      <c r="C236" s="14">
+        <v>1</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F236" s="7">
+        <v>1</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A237" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B237" s="14">
+        <v>20</v>
+      </c>
+      <c r="C237" s="14">
+        <v>1</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="14">
+        <v>6</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" s="14">
+        <v>20</v>
+      </c>
+      <c r="C238" s="14">
+        <v>1</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="14">
+        <v>15</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1</v>
+      </c>
+      <c r="G238" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B239" s="14">
+        <v>5</v>
+      </c>
+      <c r="C239" s="14">
+        <v>1</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="14">
+        <v>3</v>
+      </c>
+      <c r="F239" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G239" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A240" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240" s="14">
+        <v>20</v>
+      </c>
+      <c r="C240" s="14">
+        <v>3</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" s="14">
+        <v>2</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1</v>
+      </c>
+      <c r="G240" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241" s="14">
+        <v>5</v>
+      </c>
+      <c r="C241" s="14">
+        <v>3</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="14">
+        <v>2</v>
+      </c>
+      <c r="F241" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -3473,6 +3756,21 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DDCB7-5D77-6042-8097-2524AAC0A45D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462456F9-138C-C948-9231-4A2E8283EF08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="84">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Date: 10/01/2018</t>
+  </si>
+  <si>
+    <t>Matt Peter, Michael Riess, Jonah Kubath</t>
+  </si>
+  <si>
+    <t>Build working test machine</t>
+  </si>
+  <si>
+    <t>Make more specific</t>
+  </si>
+  <si>
+    <t>More detail</t>
+  </si>
+  <si>
+    <t>create installation script</t>
+  </si>
+  <si>
+    <t>Edit touchscreen onboard keyboard to remove certain keys</t>
+  </si>
+  <si>
+    <t>Edit startup script to run in the proper sequence</t>
+  </si>
+  <si>
+    <t>Date: 10/06/2018</t>
   </si>
 </sst>
 </file>
@@ -355,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -376,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,15 +791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.1640625"/>
+    <col min="1" max="1" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5"/>
     <col min="3" max="3" width="6.83203125"/>
     <col min="4" max="4" width="15"/>
@@ -789,11 +816,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -805,15 +832,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -914,9 +941,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -928,15 +955,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1037,9 +1064,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1051,15 +1078,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1146,9 +1173,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1160,15 +1187,15 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1292,9 +1319,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1306,15 +1333,15 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1378,9 +1405,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -1392,15 +1419,15 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -1455,9 +1482,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -1469,15 +1496,15 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -1532,9 +1559,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -1546,15 +1573,15 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1609,9 +1636,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -1623,15 +1650,15 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -1686,9 +1713,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -1700,15 +1727,15 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -1795,9 +1822,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -1809,15 +1836,15 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -3704,7 +3731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
         <v>72</v>
       </c>
@@ -3727,24 +3754,299 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="F249" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G249" s="13"/>
+    </row>
+    <row r="250" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A251" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+    </row>
+    <row r="252" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B253" s="14">
+        <v>40</v>
+      </c>
+      <c r="C253" s="14">
+        <v>3</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" s="14">
+        <v>25</v>
+      </c>
+      <c r="F253" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G253" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B254" s="14">
+        <v>40</v>
+      </c>
+      <c r="C254" s="14">
+        <v>1</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="14">
+        <v>1</v>
+      </c>
+      <c r="F254" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G254" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B255" s="14">
+        <v>8</v>
+      </c>
+      <c r="C255" s="14">
+        <v>1</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="14">
+        <v>4</v>
+      </c>
+      <c r="F255" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G255" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B256" s="14">
+        <v>20</v>
+      </c>
+      <c r="C256" s="14">
+        <v>1</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="14">
+        <v>6</v>
+      </c>
+      <c r="F256" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G256" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="14">
+        <v>5</v>
+      </c>
+      <c r="C257" s="14">
+        <v>1</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="14">
+        <v>3</v>
+      </c>
+      <c r="F257" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G257" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B258" s="14">
+        <v>5</v>
+      </c>
+      <c r="C258" s="14">
+        <v>3</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="14">
+        <v>2</v>
+      </c>
+      <c r="F258" s="7">
+        <v>1</v>
+      </c>
+      <c r="G258" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A259" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B259" s="14">
+        <v>3</v>
+      </c>
+      <c r="C259" s="14">
+        <v>1</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="14">
+        <v>3</v>
+      </c>
+      <c r="F259" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G259" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B260" s="14">
+        <v>1</v>
+      </c>
+      <c r="C260" s="14">
+        <v>1</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="14">
+        <v>0</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G260" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B261" s="14">
+        <v>1</v>
+      </c>
+      <c r="C261" s="14">
+        <v>1</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="14">
+        <v>0</v>
+      </c>
+      <c r="F261" s="7">
+        <v>1</v>
+      </c>
+      <c r="G261" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462456F9-138C-C948-9231-4A2E8283EF08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D44D30-B9FC-0A4B-B6F4-DF576F87D022}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="85">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Date: 10/06/2018</t>
+  </si>
+  <si>
+    <t>Add the option to run a video in the ads section.  Possibly mp3</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,6 +412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4049,8 +4053,28 @@
         <v>59</v>
       </c>
     </row>
+    <row r="264" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A264" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -4058,21 +4082,6 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D44D30-B9FC-0A4B-B6F4-DF576F87D022}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7312AB4-4093-9B4E-AA23-3264E5532F55}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="90">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -283,6 +283,21 @@
   </si>
   <si>
     <t>Add the option to run a video in the ads section.  Possibly mp3</t>
+  </si>
+  <si>
+    <t>Notes: Met with the client and he has given us a few more features to explore.</t>
+  </si>
+  <si>
+    <t>Create a bootable usb drive for him to use to test the application</t>
+  </si>
+  <si>
+    <t>Add a banner at the top of the screen for location and possibly weather</t>
+  </si>
+  <si>
+    <t>Add a link in the browser to access the location data from other group's project</t>
+  </si>
+  <si>
+    <t>Create bootable usb drive with application for testing</t>
   </si>
 </sst>
 </file>
@@ -409,10 +424,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,11 +835,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -836,15 +851,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -945,9 +960,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -959,15 +974,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1068,9 +1083,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1082,15 +1097,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1177,9 +1192,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1191,15 +1206,15 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1323,9 +1338,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1337,15 +1352,15 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1409,9 +1424,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -1423,15 +1438,15 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -1486,9 +1501,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -1500,15 +1515,15 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -1563,9 +1578,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -1577,15 +1592,15 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1640,9 +1655,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -1654,15 +1669,15 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -1717,9 +1732,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -1731,15 +1746,15 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -1826,9 +1841,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -1840,15 +1855,15 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -4048,33 +4063,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A263" s="15" t="s">
-        <v>59</v>
+    <row r="262" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B262" s="14">
+        <v>3</v>
+      </c>
+      <c r="C262" s="14">
+        <v>1</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F262" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G262" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A264" s="19" t="s">
+      <c r="A264" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A265" s="18" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A266" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A267" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A268" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -4082,6 +4120,21 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7312AB4-4093-9B4E-AA23-3264E5532F55}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4BDF2-36E1-334E-BAE7-6F48B9510D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="97">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>Create bootable usb drive with application for testing</t>
+  </si>
+  <si>
+    <t>Date: 10/13/2018</t>
+  </si>
+  <si>
+    <t>Notes: Met with the client to give him the bootable USB drive</t>
+  </si>
+  <si>
+    <t>Changed advertisements to resize pictures dynamically to fit the screen</t>
+  </si>
+  <si>
+    <t>Tested Firefox Addon script</t>
+  </si>
+  <si>
+    <t>Tested OS setup script</t>
+  </si>
+  <si>
+    <t>Matt/Jonah</t>
+  </si>
+  <si>
+    <t>Write unit tests for Electron App</t>
   </si>
 </sst>
 </file>
@@ -397,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +446,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,11 +859,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -851,15 +875,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -960,9 +984,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -974,15 +998,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1083,9 +1107,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1097,15 +1121,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1192,9 +1216,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1206,15 +1230,15 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1338,9 +1362,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1352,15 +1376,15 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -1424,9 +1448,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -1438,15 +1462,15 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -1501,9 +1525,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -1515,15 +1539,15 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -1578,9 +1602,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
     </row>
     <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
@@ -1592,15 +1616,15 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1655,9 +1679,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -1669,15 +1693,15 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -1732,9 +1756,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
@@ -1746,15 +1770,15 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -1841,9 +1865,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -1855,15 +1879,15 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -4111,8 +4135,364 @@
         <v>88</v>
       </c>
     </row>
+    <row r="271" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="F271" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G271" s="13"/>
+    </row>
+    <row r="272" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A273" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="19"/>
+    </row>
+    <row r="274" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B275" s="14">
+        <v>40</v>
+      </c>
+      <c r="C275" s="14">
+        <v>3</v>
+      </c>
+      <c r="D275" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" s="14">
+        <v>25</v>
+      </c>
+      <c r="F275" s="10">
+        <v>1</v>
+      </c>
+      <c r="G275" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B276" s="14">
+        <v>40</v>
+      </c>
+      <c r="C276" s="14">
+        <v>1</v>
+      </c>
+      <c r="D276" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="14">
+        <v>1</v>
+      </c>
+      <c r="F276" s="7">
+        <v>1</v>
+      </c>
+      <c r="G276" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" s="14">
+        <v>8</v>
+      </c>
+      <c r="C277" s="14">
+        <v>1</v>
+      </c>
+      <c r="D277" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="14">
+        <v>4</v>
+      </c>
+      <c r="F277" s="7">
+        <v>1</v>
+      </c>
+      <c r="G277" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B278" s="14">
+        <v>20</v>
+      </c>
+      <c r="C278" s="14">
+        <v>1</v>
+      </c>
+      <c r="D278" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="14">
+        <v>10</v>
+      </c>
+      <c r="F278" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G278" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A279" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="14">
+        <v>5</v>
+      </c>
+      <c r="C279" s="14">
+        <v>1</v>
+      </c>
+      <c r="D279" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="14">
+        <v>4</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G279" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A280" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B280" s="14">
+        <v>3</v>
+      </c>
+      <c r="C280" s="14">
+        <v>1</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="14">
+        <v>3</v>
+      </c>
+      <c r="F280" s="7">
+        <v>1</v>
+      </c>
+      <c r="G280" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B281" s="14">
+        <v>1</v>
+      </c>
+      <c r="C281" s="14">
+        <v>1</v>
+      </c>
+      <c r="D281" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="14">
+        <v>2</v>
+      </c>
+      <c r="F281" s="7">
+        <v>1</v>
+      </c>
+      <c r="G281" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B282" s="14">
+        <v>3</v>
+      </c>
+      <c r="C282" s="14">
+        <v>1</v>
+      </c>
+      <c r="D282" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="14">
+        <v>4</v>
+      </c>
+      <c r="F282" s="7">
+        <v>1</v>
+      </c>
+      <c r="G282" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A283" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B283" s="14">
+        <v>1</v>
+      </c>
+      <c r="C283" s="14">
+        <v>1</v>
+      </c>
+      <c r="D283" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F283" s="7">
+        <v>1</v>
+      </c>
+      <c r="G283" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A284" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B284" s="14">
+        <v>2</v>
+      </c>
+      <c r="C284" s="14">
+        <v>1</v>
+      </c>
+      <c r="D284" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E284" s="14">
+        <v>2</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G284" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B285" s="14">
+        <v>1</v>
+      </c>
+      <c r="C285" s="14">
+        <v>1</v>
+      </c>
+      <c r="D285" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E285" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F285" s="7">
+        <v>1</v>
+      </c>
+      <c r="G285" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B286" s="14">
+        <v>10</v>
+      </c>
+      <c r="C286" s="14">
+        <v>1</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E286" s="14">
+        <v>1</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A287" s="18"/>
+    </row>
+    <row r="288" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -4120,23 +4500,8 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4BDF2-36E1-334E-BAE7-6F48B9510D32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342D2EC-0B9E-224D-921D-CD8D0E7724B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="98">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Write unit tests for Electron App</t>
+  </si>
+  <si>
+    <t>Test browser wth JavaScript</t>
   </si>
 </sst>
 </file>
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4416,10 +4419,10 @@
         <v>2</v>
       </c>
       <c r="F284" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G284" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4442,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G285" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -4469,10 +4472,30 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A287" s="18"/>
-    </row>
-    <row r="288" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A288" s="15" t="s">
+      <c r="A287" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B287" s="14">
+        <v>3</v>
+      </c>
+      <c r="C287" s="14">
+        <v>1</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="14">
+        <v>0</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0</v>
+      </c>
+      <c r="G287" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A289" s="15" t="s">
         <v>91</v>
       </c>
     </row>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342D2EC-0B9E-224D-921D-CD8D0E7724B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD061F-647C-D447-8E31-4E3BB10359FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="102">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>Test browser wth JavaScript</t>
+  </si>
+  <si>
+    <t>The first USB drive was for testing the application and changing advertisements.</t>
+  </si>
+  <si>
+    <t>The second USB drive will contain the entire project at the current state for</t>
+  </si>
+  <si>
+    <t>demonstration.</t>
+  </si>
+  <si>
+    <t>Met again with the client.  He has requested that we set up another USB drive.</t>
   </si>
 </sst>
 </file>
@@ -837,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4494,9 +4506,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A289" s="15" t="s">
+    <row r="290" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD061F-647C-D447-8E31-4E3BB10359FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFADCB5-5048-E54C-9A15-DE26D8761EC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="104">
   <si>
     <t>Date: 04/21/2018</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Met again with the client.  He has requested that we set up another USB drive.</t>
+  </si>
+  <si>
+    <t>Updates: set_xinput_matrix.sh fails when Touch Screen is not found</t>
+  </si>
+  <si>
+    <t>setWindowSizes.sh failed</t>
   </si>
 </sst>
 </file>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A277" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:A294"/>
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,48 +4512,43 @@
         <v>14</v>
       </c>
     </row>
+    <row r="289" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A289" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="290" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -4555,6 +4556,21 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/TPS Screen Project.xlsx
+++ b/docs/TPS Screen Project.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$G$7</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$G$7</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="106">
   <si>
     <t xml:space="preserve">Date: 04/21/2018</t>
   </si>
@@ -338,6 +339,9 @@
   </si>
   <si>
     <t xml:space="preserve">demonstration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 10/20/2018</t>
   </si>
 </sst>
 </file>
@@ -462,7 +466,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,10 +521,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -600,22 +600,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E295" activeCellId="0" sqref="E295"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A286" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A319" activeCellId="0" sqref="A319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.16"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.1222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.4666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,22 +3949,22 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14" t="s">
+      <c r="A267" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4350,12 +4350,12 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4382,6 +4382,178 @@
     <row r="298" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="F302" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G302" s="13"/>
+    </row>
+    <row r="303" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B306" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C306" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F306" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B307" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C307" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F307" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B308" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C308" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E308" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F308" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B309" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C309" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E309" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F309" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B310" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C310" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4411,7 +4583,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
